--- a/agent/monopoly.xlsx
+++ b/agent/monopoly.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MaaY\agent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C4DA19-7C65-44D1-85B3-DA1E0E10BE5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D350D9DA-071A-48CE-819B-EB8A6066D385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="3036" windowWidth="19560" windowHeight="12120" xr2:uid="{600C952C-716E-4D8C-9E55-DA1CEBA6E337}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{600C952C-716E-4D8C-9E55-DA1CEBA6E337}"/>
   </bookViews>
   <sheets>
     <sheet name="PK" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="office" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="207">
   <si>
     <t>神秘的南方客人非要你收下礼物，说这礼物能让广陵热火朝天。你和他争执不断，来回拉扯。</t>
   </si>
@@ -205,6 +205,552 @@
   </si>
   <si>
     <t>新來的同僚求你傳授做皮皮梯的技巧，你想起剛就任時的窘迫，滿口答應。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判老奶奶违法上高速</t>
+  </si>
+  <si>
+    <t>向秒速三百碼的老奶奶收取罰款後，你要求老奶奶
+以後的秒速不能超過一百五十碼。</t>
+  </si>
+  <si>
+    <t>贤明与混沌没有发生变化</t>
+  </si>
+  <si>
+    <t>判凌统超速</t>
+  </si>
+  <si>
+    <t>凌统为了不再超速，日复一日地磨炼轮椅驾驶技术，终于实现了超光速行驶。该技术被邪恶的外星人窥探到，完成了进攻地球的最后一块拼图……</t>
+  </si>
+  <si>
+    <t>混沌</t>
+  </si>
+  <si>
+    <t>判袁术罚款</t>
+  </si>
+  <si>
+    <t>都是公路的错！你罚袁术赔钱。</t>
+  </si>
+  <si>
+    <t>谁的孩子</t>
+  </si>
+  <si>
+    <t>高挑村汉（xtx-强盗）：村长，听说你捡到了一个小孩，肯定是我家丢的！快把孩子给我吧！
+矮小村汉（小头像-摊贩）：你少胡说，这是我家丢的孩子！瞧瞧这孩子鼻子、眼睛和嘴巴，有哪一点像你？</t>
+  </si>
+  <si>
+    <t>滴血认亲</t>
+  </si>
+  <si>
+    <t>华佗突然冲出来告发张仲景秽乱广陵！
+滴血认亲显示这个孩子和张仲景、张大井、张晓静、张阿三、张氏鸭血粉丝汤、绣球都有亲缘关系，大家平摊了寄养费。</t>
+  </si>
+  <si>
+    <t>决斗吧爸爸</t>
+  </si>
+  <si>
+    <t>你命令两位村汉堂堂决斗，胜利者就是孩子的合法父亲。本场决斗面向全村公开售票，十秒内全部售罄。</t>
+  </si>
+  <si>
+    <t>让五人建立重组家庭</t>
+  </si>
+  <si>
+    <t>两人都声称这个孩子是自己的，为了不拆散天伦之乐，你让两个家庭和这个孩子组成了重组家庭。</t>
+  </si>
+  <si>
+    <t>贤明</t>
+  </si>
+  <si>
+    <t>人参</t>
+  </si>
+  <si>
+    <t>满宠：查到西凉人和隔壁村酒后斗殴，把仇家全家埋土里了。
+张辽：这是诬告，我们是在种人参。</t>
+  </si>
+  <si>
+    <t>给张辽办种人参许可证</t>
+  </si>
+  <si>
+    <t>西凉人安心地留下开始种人参，附近村庄人数越来越少，广陵村逐渐独霸天下......</t>
+  </si>
+  <si>
+    <t>给仇家办农业补贴</t>
+  </si>
+  <si>
+    <t>给仇家补办了农业补贴。今年广陵人参大丰收！于是你又委托西凉人再去种点人参……</t>
+  </si>
+  <si>
+    <t>村路事故</t>
+  </si>
+  <si>
+    <t>孙策：是甘宁骑着老太太过马路，老太太一个箭步撞上了我家的西瓜车!
+甘宁：你在路口转向变道还不打灯，老太太被撞晕是你全责!</t>
+  </si>
+  <si>
+    <t>孙策全责，赔偿老太太</t>
+  </si>
+  <si>
+    <t>在你的判决下，孙策拿出赔偿金，掏出钱的瞬间，老太太马上精神抖擞地站起身。
+老太太与合作伙伴甘宁瓜分赔偿后，赶往了下一个碰瓷地点设伏。</t>
+  </si>
+  <si>
+    <t>甘宁全责，赔偿老太太</t>
+  </si>
+  <si>
+    <t>甘宁赔偿了老太太一个老太太，村里拥有了两个老太太，达到了领取老年化村落补贴的比例标准。</t>
+  </si>
+  <si>
+    <t>老太太全责</t>
+  </si>
+  <si>
+    <t>撞击意外打通了老太太的任督二脉，一股暴烈的真气在她的体内游走，淬炼她的筋骨……
+老太太左右开弓，打趴了孙策和甘宁，扛起红绿灯，大笑着扬长而去。</t>
+  </si>
+  <si>
+    <t>走私</t>
+  </si>
+  <si>
+    <t>陆逊：村里新查获了一桩走私案，马腾走私了四吨黄金。
+马腾：这是私人用品，不算走私。</t>
+  </si>
+  <si>
+    <t>给马腾办成超载</t>
+  </si>
+  <si>
+    <t>因为超载，广陵村口加固了道路，要想富，先修路，建好了高速公路，经济飞速发展!</t>
+  </si>
+  <si>
+    <t>给马腾办跨境电商许可</t>
+  </si>
+  <si>
+    <t>马腾得到了跨境电商许可，每天带着西凉人跨过边境电击外国商人，劫货颇丰。</t>
+  </si>
+  <si>
+    <t>判黄金走私罪</t>
+  </si>
+  <si>
+    <t>判四吨黄金替马腾坐牢。咦，牢里的黄金怎么一天天少了呢……不过村里建设的资金丰足了，好事，好事啊。</t>
+  </si>
+  <si>
+    <t>公摊争议</t>
+  </si>
+  <si>
+    <t>购房村民（小头像-摊贩）：说是卖给我一百尺的住宅，可是里面八十五尺都是公摊面积！购房契约也太离谱了吧？
+袁基：哎，现在都这样，在下也无能为力……</t>
+  </si>
+  <si>
+    <t>判袁氏庄园加入公摊</t>
+  </si>
+  <si>
+    <t>袁氏庄园开始了公摊面积划分，划出了三座公园、五座学校、六家工坊……</t>
+  </si>
+  <si>
+    <t>判公摊改名为摆摊</t>
+  </si>
+  <si>
+    <t>公摊确实不太合理，改叫摆摊就听起来可爱多了。从根源上解决了公摊的争议，实在是英明神武！</t>
+  </si>
+  <si>
+    <t>低俗戏剧</t>
+  </si>
+  <si>
+    <t>保守老者（小头像-老年男）：诸葛剧团的戏太低俗了!都是些什么男男女女情情爱爱的事!世风日下!
+诸葛诞：冤枉啊，《瓜田猹事》可是全年龄向的合家欢。</t>
+  </si>
+  <si>
+    <t>设法让瓜田的猹当影帝</t>
+  </si>
+  <si>
+    <t>你用尽手段、收买人心，终于……新晋影帝，瓜田的猹!广陵因此得到了文化补贴，可以举办广陵电影节了!</t>
+  </si>
+  <si>
+    <t>《瓜田猹事》票房大爆，保守老者迅速坐拥三千万粉丝，面对镜头，娇羞的露出了素人般的微笑，“我能有今天，都是村长的扶持……”</t>
+  </si>
+  <si>
+    <t>让瓜田演猹</t>
+  </si>
+  <si>
+    <t>你要求瓜田里的西瓜负责扮演猹，西瓜演技呆板，《瓜田猹事》票房坠机，并导致今年瓜田无法采收。</t>
+  </si>
+  <si>
+    <t>医者仁心</t>
+  </si>
+  <si>
+    <t>偷鹅大盗：胳膊……哎哟……我的胳膊……
+受害鹅家属：不许让医馆治他！他摔断手是活该！谁让他偷我家的大鹅还做成铁锅炖了……</t>
+  </si>
+  <si>
+    <t>治好大盗，让他去当鹅</t>
+  </si>
+  <si>
+    <t>大盗突然觉醒了前世当鹅的记忆，开心地当起了鹅，在村民家白吃白喝。</t>
+  </si>
+  <si>
+    <t>不要医治，让家属报复</t>
+  </si>
+  <si>
+    <t>因为手臂剧痛，华佗替大盗接上了六条备用手臂!从此大盗一个人可以写三个人的文件了，成为了金牌办事员!</t>
+  </si>
+  <si>
+    <t>用鹅的方法赎罪吧！</t>
+  </si>
+  <si>
+    <t>铁锅炖大盗，香。</t>
+  </si>
+  <si>
+    <t>洗墨澡堂</t>
+  </si>
+  <si>
+    <t>软弾魂魂（小头像-离魂府兵-魂魂）：为什么不让我进澡堂！你歧视魂魂！
+绒绒狼犬：呜——汪！汪汪汪！
+张闿：不行，为了水质考虑，洗墨澡堂不接受动物和魂魂混浴。</t>
+  </si>
+  <si>
+    <t>将洗墨澡堂改为魂魂澡堂</t>
+  </si>
+  <si>
+    <t>一团团弹弹软软的魂魂落入洗澡池中，渐渐融化了……张闿隔三差五就请全村喝年糕汤。</t>
+  </si>
+  <si>
+    <t>将洗墨澡堂改为宠物澡堂</t>
+  </si>
+  <si>
+    <t>狗狗的洗澡水被包装成能辟邪的圣物，引发村民争购。这背后都是你在推动……</t>
+  </si>
+  <si>
+    <t>禁书目录</t>
+  </si>
+  <si>
+    <t>家长：我要投诉！傅融的二手书摊上有书的封面上画着人在抽烟，这样教坏小朋友的东西怎能摆出来！
+傅融：为什么你家里人抽烟你就没意见也不怕教坏孩子……
+家长：作为村里的办事员，你居然还敢狡辩？！</t>
+  </si>
+  <si>
+    <t>书没问题，罚家长</t>
+  </si>
+  <si>
+    <t>声称封面人物抽的不是烟，是螺旋内外层光谱激光定位仪，家长认为小朋友不会被教坏了，赔偿傅融日薪后满意离去。</t>
+  </si>
+  <si>
+    <t>书有问题，罚傅融</t>
+  </si>
+  <si>
+    <t>你要求傅融把所有书里与抽烟相关的内容都做替换把抽烟改成抽卡。村里开始流行卡牌对战，你趁机将一批白眼黑龙投放市场……</t>
+  </si>
+  <si>
+    <t>让抽烟的人抽完全村的烟</t>
+  </si>
+  <si>
+    <t>既然家长的家里人也抽烟那就由这几人负责把全村的烟都抽了吧。由于吸入太多烟，几人觉醒了体内造烟的能力，投身舞美特效行业。</t>
+  </si>
+  <si>
+    <t>旧居拆迁</t>
+  </si>
+  <si>
+    <t>周群：不好了村长！徐庶去劫狱了！
+徐庶：江湖儿女！</t>
+  </si>
+  <si>
+    <t>表彰徐庶向社会输送人才</t>
+  </si>
+  <si>
+    <t>你一声令下，为了不被输送回社会，犯人们都把自己藏在牢房最深处，生怕被劫。</t>
+  </si>
+  <si>
+    <t>给徐庶办成人才引进</t>
+  </si>
+  <si>
+    <t>一听有人才引进补贴，犯人们纷纷使出浑身手段吸引徐庶，露水情缘事件集中爆发，每天都有人来问你要说法……</t>
+  </si>
+  <si>
+    <t>判徐庶禁言两小时</t>
+  </si>
+  <si>
+    <t>由于两小时不说话，无数露水情缘以为被徐庶抛弃，断情绝爱开始备考和考公。</t>
+  </si>
+  <si>
+    <t>消费权益</t>
+  </si>
+  <si>
+    <t>袁术：明明是你自己冲到黄金马车前面的！你碰瓷！
+老奶奶：我被撞飞了五百米……而且，你没有驾照吧？</t>
+  </si>
+  <si>
+    <t>判袁术赔偿</t>
+  </si>
+  <si>
+    <t>你判决袁术无证驾驶，赔偿老奶奶巨款。</t>
+  </si>
+  <si>
+    <t>判老奶奶肇事逃逸</t>
+  </si>
+  <si>
+    <t>你判老奶奶在一秒内肇事逃逸五百米。国际田径赛事听闻此案后重金挖角老奶奶，老奶奶终成一代短跑名将。</t>
+  </si>
+  <si>
+    <t>判马刑事责任</t>
+  </si>
+  <si>
+    <t>判马代袁术坐牢。马突然直立起身左右开弓打趴所有人大笑离去，竟是传说中的人中赤兔！</t>
+  </si>
+  <si>
+    <t>桃花歪运</t>
+  </si>
+  <si>
+    <t>刘辩：灵符不退不换，而且不是给你招到桃花运了么一一喏，两个追求者呢！
+清俊小伙（小头像-少年）：那是两头大野狼啊！这不是我要的桃花，快赔我，你说过假一赔十的！</t>
+  </si>
+  <si>
+    <t>刘辩赔小伙十张符</t>
+  </si>
+  <si>
+    <t>十头大野狼一起爱上了小伙，小伙没能经受住狼的诱惑，加入了这个大家庭。</t>
+  </si>
+  <si>
+    <t>刘辩赔小伙一百张符</t>
+  </si>
+  <si>
+    <t>一百头大野狼一起爱上了小伙，为了争夺小伙开始互相厮杀变成了一级保护动物，美人只配强者拥有！</t>
+  </si>
+  <si>
+    <t>给全村人都发一张符</t>
+  </si>
+  <si>
+    <t>全村每个人都被一头大野狼疯狂地追求，整座村充斥着狼性文化，村庄建设加快了百分之三百！</t>
+  </si>
+  <si>
+    <t>技艺不精</t>
+  </si>
+  <si>
+    <t>孙权：甘宁在我家的瓜田里抛尸，还把西瓜塞到了死者肚子里！
+甘宁：放屁，明明是他自己生吞一个西瓜撑死的！</t>
+  </si>
+  <si>
+    <t>让甘宁表演生吞西瓜</t>
+  </si>
+  <si>
+    <t>甘宁真的生吞下去一个西瓜?!该视频全网获得了两亿点赞，甘宁一举成为了全州知名的红人，一夜暴富，作威作福。</t>
+  </si>
+  <si>
+    <t>给死者补办生育补贴</t>
+  </si>
+  <si>
+    <t>全村的西瓜莫名开始增产，今年大丰收!</t>
+  </si>
+  <si>
+    <t>病假</t>
+  </si>
+  <si>
+    <t>老板（小头像-摊贩）：村长！全村的人都在开病假条，没人干活了！我要告左慈医师非法开病假条！
+左慈：每个人都有自己的病，吾只是预先查出了病灶。</t>
+  </si>
+  <si>
+    <t>判老板赔偿</t>
+  </si>
+  <si>
+    <t>判老板赔偿左慈病假条的纸张费，全村的人都每天快乐开着病假不干活了，少走了三十年弯路，过上了低物欲养老生活。</t>
+  </si>
+  <si>
+    <t>判左慈停诊</t>
+  </si>
+  <si>
+    <t>左慈停诊后，村民无假可休，开始疯狂内卷，最终将太学生工资卷下了一千五，造成了本村的发展停滞......</t>
+  </si>
+  <si>
+    <t>表彰左慈节约用纸</t>
+  </si>
+  <si>
+    <t>表彰左边的诊所采用双面书写的节约用纸美德！一张病假单可以正反面开两个人的假条，假期翻倍！</t>
+  </si>
+  <si>
+    <t>罚单复议</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌统：我不是故意的……
+老奶奶（小头像-老年女）：你在高速公路上开到三百码，还不是故意的？
+凌统：我原来以为我追不上前辈的……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果文本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项文本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCR用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸爸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>种</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>让保守老者演瓜田的猹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓜田演</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治好</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有问</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没问</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>办成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>老</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>罪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>办</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>停</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>节</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -244,19 +790,101 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF9E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -266,7 +894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,10 +904,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -618,8 +1294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD8639E-2ABF-4460-A975-C7C2CBFC969A}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -820,186 +1496,186 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47">
         <v>2</v>
       </c>
     </row>
@@ -1011,12 +1687,878 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C52ECE1-967C-49F2-95F0-387018D53E09}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="82.44140625" customWidth="1"/>
+    <col min="4" max="5" width="26.109375" customWidth="1"/>
+    <col min="6" max="6" width="94.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>2</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>5</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>6</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>7</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>8</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>9</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>10</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>11</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>12</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>13</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>14</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>15</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>16</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/agent/monopoly.xlsx
+++ b/agent/monopoly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MaaY\agent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D350D9DA-071A-48CE-819B-EB8A6066D385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E636C416-B1B5-4794-9DA2-A34C9834A67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{600C952C-716E-4D8C-9E55-DA1CEBA6E337}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{600C952C-716E-4D8C-9E55-DA1CEBA6E337}"/>
   </bookViews>
   <sheets>
     <sheet name="PK" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="207">
-  <si>
-    <t>神秘的南方客人非要你收下礼物，说这礼物能让广陵热火朝天。你和他争执不断，来回拉扯。</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="211">
   <si>
     <t>许攸久仰你的威名，远道而来，意欲投奔。</t>
   </si>
@@ -216,9 +213,6 @@
   </si>
   <si>
     <t>贤明与混沌没有发生变化</t>
-  </si>
-  <si>
-    <t>判凌统超速</t>
   </si>
   <si>
     <t>凌统为了不再超速，日复一日地磨炼轮椅驾驶技术，终于实现了超光速行驶。该技术被邪恶的外星人窥探到，完成了进攻地球的最后一块拼图……</t>
@@ -751,6 +745,30 @@
   </si>
   <si>
     <t>节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判凌统超速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贤明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贤明与混沌没有发生变化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的南方客人非要你收下礼物，说这礼物能让广陵热火朝天。你和他争执不断，来回拉扯。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某不愿透露姓名的曹氏二公子批评你吃葡萄不吐葡萄皮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1292,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD8639E-2ABF-4460-A975-C7C2CBFC969A}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1305,15 +1323,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1321,7 +1339,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1329,7 +1347,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1337,7 +1355,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1345,7 +1363,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1353,7 +1371,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1361,7 +1379,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1369,7 +1387,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1377,7 +1395,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1385,7 +1403,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1393,7 +1411,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1401,7 +1419,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1409,7 +1427,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1417,7 +1435,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1425,7 +1443,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1433,7 +1451,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1441,7 +1459,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1449,7 +1467,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1457,7 +1475,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1465,7 +1483,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1473,7 +1491,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1481,7 +1499,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -1489,7 +1507,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1497,15 +1515,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1513,7 +1531,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1521,7 +1539,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1529,7 +1547,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1537,7 +1555,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1545,7 +1563,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1553,7 +1571,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1561,7 +1579,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1569,15 +1587,15 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -1585,7 +1603,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -1593,7 +1611,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -1601,7 +1619,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -1609,7 +1627,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -1617,7 +1635,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -1625,7 +1643,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -1633,7 +1651,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -1641,7 +1659,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -1649,7 +1667,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -1657,7 +1675,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -1665,7 +1683,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -1673,9 +1691,17 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
         <v>2</v>
       </c>
     </row>
@@ -1689,8 +1715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C52ECE1-967C-49F2-95F0-387018D53E09}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1703,25 +1729,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" t="s">
         <v>162</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" t="s">
         <v>163</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>164</v>
-      </c>
-      <c r="D1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1729,22 +1755,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1752,16 +1778,16 @@
       <c r="B3" s="13"/>
       <c r="C3" s="16"/>
       <c r="D3" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1769,16 +1795,16 @@
       <c r="B4" s="14"/>
       <c r="C4" s="17"/>
       <c r="D4" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1786,22 +1812,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="E5" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1809,16 +1835,16 @@
       <c r="B6" s="13"/>
       <c r="C6" s="16"/>
       <c r="D6" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1826,16 +1852,16 @@
       <c r="B7" s="14"/>
       <c r="C7" s="17"/>
       <c r="D7" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>64</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1843,22 +1869,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="E8" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="G8" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1866,16 +1892,16 @@
       <c r="B9" s="14"/>
       <c r="C9" s="17"/>
       <c r="D9" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1883,22 +1909,22 @@
         <v>5</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="E10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="G10" s="6" t="s">
-        <v>53</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1906,16 +1932,16 @@
       <c r="B11" s="13"/>
       <c r="C11" s="16"/>
       <c r="D11" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1923,16 +1949,16 @@
       <c r="B12" s="14"/>
       <c r="C12" s="17"/>
       <c r="D12" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>50</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1940,22 +1966,22 @@
         <v>6</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="E13" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="G13" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1963,16 +1989,16 @@
       <c r="B14" s="13"/>
       <c r="C14" s="16"/>
       <c r="D14" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1980,16 +2006,16 @@
       <c r="B15" s="14"/>
       <c r="C15" s="17"/>
       <c r="D15" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1997,22 +2023,22 @@
         <v>7</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="E16" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="G16" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2020,16 +2046,16 @@
       <c r="B17" s="14"/>
       <c r="C17" s="17"/>
       <c r="D17" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2037,22 +2063,22 @@
         <v>8</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="E18" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="G18" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2060,16 +2086,16 @@
       <c r="B19" s="13"/>
       <c r="C19" s="16"/>
       <c r="D19" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2077,16 +2103,16 @@
       <c r="B20" s="14"/>
       <c r="C20" s="17"/>
       <c r="D20" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2094,22 +2120,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="E21" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="G21" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2117,16 +2143,16 @@
       <c r="B22" s="13"/>
       <c r="C22" s="16"/>
       <c r="D22" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2134,16 +2160,16 @@
       <c r="B23" s="14"/>
       <c r="C23" s="17"/>
       <c r="D23" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2151,22 +2177,22 @@
         <v>10</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="E24" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="G24" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2174,16 +2200,16 @@
       <c r="B25" s="14"/>
       <c r="C25" s="17"/>
       <c r="D25" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2191,22 +2217,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="E26" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="G26" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2214,16 +2240,16 @@
       <c r="B27" s="13"/>
       <c r="C27" s="16"/>
       <c r="D27" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2231,16 +2257,16 @@
       <c r="B28" s="14"/>
       <c r="C28" s="17"/>
       <c r="D28" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2248,22 +2274,22 @@
         <v>12</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="E29" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="G29" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2271,16 +2297,16 @@
       <c r="B30" s="13"/>
       <c r="C30" s="19"/>
       <c r="D30" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2288,16 +2314,16 @@
       <c r="B31" s="14"/>
       <c r="C31" s="20"/>
       <c r="D31" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2305,22 +2331,22 @@
         <v>13</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="E32" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="G32" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2328,16 +2354,16 @@
       <c r="B33" s="13"/>
       <c r="C33" s="19"/>
       <c r="D33" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2345,16 +2371,16 @@
       <c r="B34" s="14"/>
       <c r="C34" s="20"/>
       <c r="D34" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2362,22 +2388,22 @@
         <v>14</v>
       </c>
       <c r="B35" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="E35" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="G35" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2385,16 +2411,16 @@
       <c r="B36" s="13"/>
       <c r="C36" s="16"/>
       <c r="D36" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2402,16 +2428,16 @@
       <c r="B37" s="14"/>
       <c r="C37" s="17"/>
       <c r="D37" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2419,22 +2445,22 @@
         <v>15</v>
       </c>
       <c r="B38" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="E38" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="G38" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2442,16 +2468,16 @@
       <c r="B39" s="14"/>
       <c r="C39" s="17"/>
       <c r="D39" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2459,22 +2485,22 @@
         <v>16</v>
       </c>
       <c r="B40" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="E40" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>155</v>
-      </c>
       <c r="G40" s="6" t="s">
-        <v>64</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2482,16 +2508,16 @@
       <c r="B41" s="13"/>
       <c r="C41" s="16"/>
       <c r="D41" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2499,56 +2525,20 @@
       <c r="B42" s="14"/>
       <c r="C42" s="17"/>
       <c r="D42" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="C40:C42"/>
@@ -2558,6 +2548,42 @@
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/agent/monopoly.xlsx
+++ b/agent/monopoly.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MaaY\agent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MaaYuan\agent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E636C416-B1B5-4794-9DA2-A34C9834A67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52878537-D18B-4BDA-8429-D04FDB8948C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{600C952C-716E-4D8C-9E55-DA1CEBA6E337}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{600C952C-716E-4D8C-9E55-DA1CEBA6E337}"/>
   </bookViews>
   <sheets>
     <sheet name="PK" sheetId="1" r:id="rId1"/>
     <sheet name="office" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1310,18 +1311,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD8639E-2ABF-4460-A975-C7C2CBFC969A}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="86.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1329,7 +1330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>209</v>
       </c>
@@ -1337,7 +1338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1353,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1361,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1369,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1377,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1385,7 +1386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1393,316 +1394,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10">
         <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1719,15 +1416,15 @@
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="82.44140625" customWidth="1"/>
-    <col min="4" max="5" width="26.109375" customWidth="1"/>
-    <col min="6" max="6" width="94.21875" customWidth="1"/>
+    <col min="3" max="3" width="82.46484375" customWidth="1"/>
+    <col min="4" max="5" width="26.1328125" customWidth="1"/>
+    <col min="6" max="6" width="94.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>160</v>
       </c>
@@ -1750,7 +1447,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="12">
         <v>2</v>
       </c>
@@ -1773,7 +1470,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="16"/>
@@ -1790,7 +1487,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="17"/>
@@ -1807,7 +1504,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -1830,7 +1527,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="16"/>
@@ -1847,7 +1544,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17"/>
@@ -1864,7 +1561,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -1887,7 +1584,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="17"/>
@@ -1904,7 +1601,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="12">
         <v>5</v>
       </c>
@@ -1927,7 +1624,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="16"/>
@@ -1944,7 +1641,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="17"/>
@@ -1961,7 +1658,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="12">
         <v>6</v>
       </c>
@@ -1984,7 +1681,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="16"/>
@@ -2001,7 +1698,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="17"/>
@@ -2018,7 +1715,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12">
         <v>7</v>
       </c>
@@ -2041,7 +1738,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="17"/>
@@ -2058,7 +1755,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12">
         <v>8</v>
       </c>
@@ -2081,7 +1778,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="16"/>
@@ -2098,7 +1795,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="17"/>
@@ -2115,7 +1812,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
         <v>9</v>
       </c>
@@ -2138,7 +1835,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="16"/>
@@ -2155,7 +1852,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="17"/>
@@ -2172,7 +1869,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="12">
         <v>10</v>
       </c>
@@ -2195,7 +1892,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="17"/>
@@ -2212,7 +1909,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="12">
         <v>11</v>
       </c>
@@ -2235,7 +1932,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="16"/>
@@ -2252,7 +1949,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="17"/>
@@ -2269,7 +1966,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="12">
         <v>12</v>
       </c>
@@ -2292,7 +1989,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="19"/>
@@ -2309,7 +2006,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="20"/>
@@ -2326,7 +2023,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="12">
         <v>13</v>
       </c>
@@ -2349,7 +2046,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="19"/>
@@ -2366,7 +2063,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="20"/>
@@ -2383,7 +2080,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="12">
         <v>14</v>
       </c>
@@ -2406,7 +2103,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="16"/>
@@ -2423,7 +2120,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="17"/>
@@ -2440,7 +2137,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="12">
         <v>15</v>
       </c>
@@ -2463,7 +2160,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="17"/>
@@ -2480,7 +2177,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="12">
         <v>16</v>
       </c>
@@ -2503,7 +2200,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="16"/>
@@ -2520,7 +2217,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="17"/>
@@ -2539,6 +2236,42 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="C40:C42"/>
@@ -2548,44 +2281,331 @@
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C34EF9-84F8-4BD3-93D6-12CBA8664241}">
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="72.06640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="102" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="127.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="89.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="76.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="76.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="114.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="89.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="63.75" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="102" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="114.75" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="76.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="89.25" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="76.5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="114.75" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="140.25" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="63.75" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="102" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="102" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="76.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="114.75" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="89.25" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="102" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="76.5" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="102" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="127.5" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="89.25" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="76.5" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="76.5" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="114.75" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="89.25" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="63.75" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="102" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="114.75" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="76.5" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="89.25" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="114.75" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/agent/monopoly.xlsx
+++ b/agent/monopoly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MaaYuan\agent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MaaY\agent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52878537-D18B-4BDA-8429-D04FDB8948C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93BE67B-9453-4DD5-ACB0-ED50F6E5E1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{600C952C-716E-4D8C-9E55-DA1CEBA6E337}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{600C952C-716E-4D8C-9E55-DA1CEBA6E337}"/>
   </bookViews>
   <sheets>
     <sheet name="PK" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="212">
   <si>
     <t>许攸久仰你的威名，远道而来，意欲投奔。</t>
   </si>
@@ -770,6 +770,10 @@
   </si>
   <si>
     <t>某不愿透露姓名的曹氏二公子批评你吃葡萄不吐葡萄皮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1313,16 +1317,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD8639E-2ABF-4460-A975-C7C2CBFC969A}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="86.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1330,7 +1334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>209</v>
       </c>
@@ -1338,7 +1342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1346,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1354,7 +1358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1362,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1370,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1378,7 +1382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1386,7 +1390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1394,7 +1398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1412,19 +1416,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C52ECE1-967C-49F2-95F0-387018D53E09}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="82.46484375" customWidth="1"/>
-    <col min="4" max="5" width="26.1328125" customWidth="1"/>
-    <col min="6" max="6" width="94.19921875" customWidth="1"/>
+    <col min="3" max="3" width="82.44140625" customWidth="1"/>
+    <col min="4" max="5" width="26.109375" customWidth="1"/>
+    <col min="6" max="6" width="94.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>160</v>
       </c>
@@ -1447,7 +1451,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>2</v>
       </c>
@@ -1470,7 +1474,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="16"/>
@@ -1487,7 +1491,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="17"/>
@@ -1504,7 +1508,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -1527,7 +1531,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="16"/>
@@ -1544,7 +1548,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17"/>
@@ -1561,7 +1565,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -1584,7 +1588,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="17"/>
@@ -1601,7 +1605,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>5</v>
       </c>
@@ -1624,7 +1628,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="16"/>
@@ -1641,7 +1645,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="17"/>
@@ -1658,7 +1662,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>6</v>
       </c>
@@ -1681,7 +1685,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="16"/>
@@ -1698,7 +1702,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="17"/>
@@ -1715,7 +1719,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>7</v>
       </c>
@@ -1738,7 +1742,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="17"/>
@@ -1755,7 +1759,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>8</v>
       </c>
@@ -1778,7 +1782,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="16"/>
@@ -1795,7 +1799,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="17"/>
@@ -1812,7 +1816,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>9</v>
       </c>
@@ -1835,7 +1839,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="16"/>
@@ -1852,7 +1856,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="17"/>
@@ -1869,7 +1873,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>10</v>
       </c>
@@ -1892,7 +1896,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="17"/>
@@ -1909,7 +1913,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>11</v>
       </c>
@@ -1932,7 +1936,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="16"/>
@@ -1949,7 +1953,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="17"/>
@@ -1966,7 +1970,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>12</v>
       </c>
@@ -1989,7 +1993,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="19"/>
@@ -2006,7 +2010,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="20"/>
@@ -2023,7 +2027,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>13</v>
       </c>
@@ -2037,7 +2041,7 @@
         <v>130</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>131</v>
@@ -2046,7 +2050,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="19"/>
@@ -2063,7 +2067,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="20"/>
@@ -2080,7 +2084,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>14</v>
       </c>
@@ -2103,7 +2107,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="16"/>
@@ -2120,7 +2124,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="17"/>
@@ -2137,7 +2141,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>15</v>
       </c>
@@ -2160,7 +2164,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="17"/>
@@ -2177,7 +2181,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>16</v>
       </c>
@@ -2200,7 +2204,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="16"/>
@@ -2217,7 +2221,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="50" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="17"/>
@@ -2236,42 +2240,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="C40:C42"/>
@@ -2281,6 +2249,42 @@
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:B39"/>
     <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2295,12 +2299,12 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.06640625" customWidth="1"/>
+    <col min="1" max="1" width="72.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="76.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -2308,7 +2312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="102" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -2316,7 +2320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="127.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -2324,7 +2328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="89.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -2332,7 +2336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="76.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2340,7 +2344,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="76.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -2348,7 +2352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="114.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -2356,7 +2360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="89.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -2364,7 +2368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="63.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -2372,7 +2376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="102" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -2380,7 +2384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="114.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -2388,7 +2392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="76.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2396,7 +2400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="89.25" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2404,7 +2408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="76.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>210</v>
       </c>
@@ -2412,7 +2416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="114.75" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2420,7 +2424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="140.25" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
@@ -2428,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="63.75" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -2436,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="102" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -2444,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="102" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -2452,7 +2456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="76.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -2460,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -2468,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="114.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
@@ -2476,7 +2480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="89.25" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
@@ -2484,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="102" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -2492,7 +2496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="76.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
@@ -2500,7 +2504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="102" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -2508,7 +2512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="127.5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>35</v>
       </c>
@@ -2516,7 +2520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="89.25" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>36</v>
       </c>
@@ -2524,7 +2528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="76.5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -2532,7 +2536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="76.5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -2540,7 +2544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="114.75" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>39</v>
       </c>
@@ -2548,7 +2552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="89.25" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
@@ -2556,7 +2560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="63.75" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>41</v>
       </c>
@@ -2564,7 +2568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="102" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>42</v>
       </c>
@@ -2572,7 +2576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="114.75" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>43</v>
       </c>
@@ -2580,7 +2584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="76.5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>44</v>
       </c>
@@ -2588,7 +2592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="89.25" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
@@ -2596,7 +2600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="114.75" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
